--- a/biology/Histoire de la zoologie et de la botanique/William_Woolls/William_Woolls.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Woolls/William_Woolls.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le révérend William Woolls est un enseignant et un homme d’Église, ainsi qu’un botaniste amateur britannique, né le 30 mars 1814 à Winchester, Hants et mort le 14 mars 1893 à Burwood près de Sydney.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient un doctorat à Göttingen. Il est membre de la Société linnéenne de Londres en 1865. Il se rend en Nouvelle-Galles du Sud en 1832. Il travaille au King’s School de Parramatta puis à partir de 1836, Woolls enseigne les lettres au Sydney College. Il fonde à Parramatta une école privée. Il rejoint la Grammar School en 1857 et est ordonné prêtre en 1873, il a la charge de l’église épiscopalienne de Richmond de 1873 à 1883.
 C’est son ami, le révérend James Walker (1794-1804), qu’il lui fait découvrir la botanique. Il correspond avec Ferdinand von Mueller (1825-1896).
@@ -543,7 +557,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ray Desmond (1994). Dictionary of British and Irish Botanists and Horticulturists including Plant Collectors, Flower Painters and Garden Designers. Taylor &amp; Francis et The Natural History Museum (Londres).</t>
         </is>
